--- a/data/model-assumptions.xlsx
+++ b/data/model-assumptions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\papers\covid19\policy-innovation-sem\policy innovation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\PAPERS\covid19\policy-innovation-sem\policy innovation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80D7E7DD-BEEC-4B42-8D99-F66E34C17A9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE81DA35-82D2-4D3F-87BA-D7E33D23ACC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{AA80D402-045C-429C-8124-8C8908084DE7}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" xr2:uid="{AA80D402-045C-429C-8124-8C8908084DE7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t xml:space="preserve">Relationship </t>
   </si>
@@ -98,9 +98,6 @@
     <t>III</t>
   </si>
   <si>
-    <t>VI</t>
-  </si>
-  <si>
     <t>H3</t>
   </si>
   <si>
@@ -123,6 +120,21 @@
   </si>
   <si>
     <t>Variables</t>
+  </si>
+  <si>
+    <t>Decision</t>
+  </si>
+  <si>
+    <t>Evidence found</t>
+  </si>
+  <si>
+    <t>Partial Evidence found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evidence not found </t>
+  </si>
+  <si>
+    <t>IV</t>
   </si>
 </sst>
 </file>
@@ -184,19 +196,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -512,163 +527,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B290F638-CE35-4DFC-ABB2-07454A94E906}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E9"/>
+      <selection activeCell="D3" sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
+      <c r="F5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
+      <c r="D8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="D9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
+      <c r="F9" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
